--- a/Data/Tasks.xlsx
+++ b/Data/Tasks.xlsx
@@ -32,10 +32,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Duration (h)</t>
+    <t>Duration</t>
   </si>
   <si>
     <t>M1</t>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Smeer shaft</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -417,14 +417,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -433,22 +433,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -456,7 +456,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
